--- a/1.xlsx
+++ b/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,24 +456,252 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inaturalist</t>
+          <t>Материалы и принципы изготовления</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inaturalist — совместный проект Калифорнийской академии наук и Национального географического общества. Название у ресурса говорящее — вы почувствуете себя настоящим натуралистом. В приложении можно вести дневники наблюдений, причём не только за растениями, но и за птицами, животными, насекомыми, делиться своими находками, описывать их и обсуждать с единомышленниками.
- Есть вкладка «карта», где можно посмотреть, какие наблюдения сделали другие пользователи неподалёку от вас. Можно запускать свои проекты или присоединиться к уже существующим. Настоящая находка для юных экологов! Кроме того, так вы не только расширяете свой кругозор, но и помогаете науке — собранные данные анализируют учёные со всего мира. 
-Inaturalist
-                Загрузите в
-                App Store
-                Доступно в
-                Google Play
- </t>
+          <t>При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если пр</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/sem2_prolozheniy_rasteniy_foto_2-6.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-20.png</t>
         </is>
       </c>
     </row>
@@ -483,26 +711,192 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flora Incognita</t>
+          <t>Французские кормушки</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приложение разработано учёными Технического университета Ильменау и Института биогеохимии им. Макса Планка в Йене (Германия). Его российская версия распознаёт растения именно средней полосы.
- Чтобы определить, какое дерево или цветок перед вами, сфотографируйте его, и приложение выдаст название. Кроме названия можно почитать про его характеристики, узнать про токсичность, сферу применения, его экологический статус и ареал распространения. По сути — маленькая ботаническая энциклопедия. Чтобы использовать все функции приложения, нужно будет зарегистрироваться. 
-Flora Incognita
-                Загрузите в
-                App Store
-                Доступно в
-                Google Play
-Материал по теме
-Запасаем лекарственные травы: пять приложений-помощников
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
  </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/sem2_prolozheniy_rasteniy_foto_4-6.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-36.jpg</t>
         </is>
       </c>
     </row>
@@ -512,24 +906,114 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LeafSnap</t>
+          <t>Изготовление кормушки из пластиковой бочки</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приложение разработано исследователями трёх университетов — Колумбийского, университета штата Мэриленд и Смитсоновского института, а также Музея естественной истории в Лондоне. Принцип тот же: делаете фото растения или загружаете из галереи.
- Идентифицировать можно по листьям, цветам, плодам или коре. После распознавания появляется карточка растения, где можно найти всю полезную информацию о нём. Кроме того, в приложении можно составлять коллекцию своих растений и оставлять себе задания-напоминалки. Приложение платное, возможности бесплатной версии ограничены. 
-LeafSnap
-                Загрузите в
-                App Store
-                Доступно в
-                Google Play
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
  </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/sem2_prolozheniy_rasteniy_foto_7-6.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-49.jpg</t>
         </is>
       </c>
     </row>
@@ -537,16 +1021,37 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Начинающие садоводы часто сталкиваются с проблемой, как узнать цветок на фото. Это не так сложно, если под руками есть интернет. Существует масса сервисов, которые помогут определить, что нарисовано на картинке или изображено на фото, и дадут подробное описание. Мы разработали свой сервис, который позволяет бесплатно найти название растения, цветка или дерева (в т.ч. фруктового), используя искусственный интеллект. Чтобы воспользоваться сервисом, необходимо загрузить фотографию из памяти устройства или сфотографировать объект в режиме онлайн (выбрать подходящий вариант).
-Анастасия Гнетова, создатель сервиса Загрузите фото для поиска После загрузки фото появится кнопка “Узнать название” – нажмите на неё, чтобы получить названия растений и список тематических статей. </t>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Кормушки для коз </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/zhasmin-1-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/1-42-300x200-6.jpg</t>
         </is>
       </c>
     </row>
@@ -556,17 +1061,252 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Google объектив Lens</t>
+          <t>Материалы и принципы изготовления</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">С помощью этого приложения для смартфона можно идентифицировать практически любое изображение растительной культуры. В основу программы положена технология компьютерного зрения. Распознать можно не только растения, но и любые другие предметы. Google Lens способно определить породу животного, модель мобильного устройства, прибора, а иногда и предложит ссылку на покупку товара. Причем, процесс поиска длится несколько секунд. Для работы программу скачивают из мобильного магазина. По окончанию установки приложение потребуется открыть, определить режим работы и навести объектив на искомое растение. Если поиск не начался, то пальцем провести по экрану, где располагается объект. После появления цветного круга кликают по нему. Приложение предложит сразу несколько названий. По ним можно кликать поочередно, чтобы ознакомиться с описанием. Если есть сомнения в результате, цветок допустимо сфотографировать еще раз, чтобы посмотреть новые результаты. </t>
+          <t>При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если пр</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/2-google-obektiv-lens-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-21.png</t>
         </is>
       </c>
     </row>
@@ -576,17 +1316,192 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LeafSnap</t>
+          <t>Французские кормушки</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Определитель растений, который оснащен пока только англоязычным интерфейсом. С его помощью можно распознать растение по фотографии. Возможности утилиты позволяют по загруженным фото создавать свою коллекцию. Для идентификации растительной культуры выполняют следующую последовательность действий: Приложение LeafShap доступно для установки как в Play Market, так и App Store. </t>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/4-leafsnap-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-37.jpg</t>
         </is>
       </c>
     </row>
@@ -596,17 +1511,114 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flora Incognita</t>
+          <t>Изготовление кормушки из пластиковой бочки</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Еще один мобильный сервис, который разработан немецкими учеными. Версия на русском языке прекрасно распознает растения средней полосы. Нужную культуру (цветок, дерево, траву) фотографируют сразу из программы. Сервис быстро выдаст название, а также некоторые характеристики: Программа предлагает регистрацию. Если этого не сделать, все функции не будут доступны. </t>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/7-flora-incognita-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-50.jpg</t>
         </is>
       </c>
     </row>
@@ -616,17 +1628,111 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Plant Lens</t>
+          <t>Кормушка из труб</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Подобное приложение особенно полезно для новичков, которые хотят узнать больше о названиях растений, а также изучить их краткое описание. Plant Lens – уникальный огромный идентификатор для растений. В базе содержится более 60 тыс. видов. Благодаря фотографии можно на 92% опознать растение. Из выполненных фотографий получится создать собственную карту. </t>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема самых распространенных моделей Недопустимо использовать кормушку для неподходящего корма. Иначе сыпучий комбикорм или зерно будут высыпаться из широких промежутков между элементами конструкции кормушки ясельного типа для грубых кормов, а сено застрянет в бункерной конструкции из трубы для сыпучих кормов и наглухо закупорит ее.
+Видео — Кормушки для коз
+Требования к кормушкам
+Самое главное условие – кормушка должна быть безопасной для животных. Для выполнения этого требования необходимо при выборе конструкции и монтаже учитывать следующее:
+прорези для поедания корма должны быть такого размера, чтобы животные свободно могли засунуть туда головы до самого конца кормушки, не соприкасаясь со стенкой. Но недостаточного размера для того, чтобы можно было пролезть внутрь и протиснуть в отверстие передние ноги или залезть в кормушку полностью;
+между шеей животного и стеной прорези должно оставаться минимум по 3-5 см, с каждой стороны, это предотвратит застревание. Высота прорезей рассчитывается индивидуально. Если в стаде есть рогатые особи, то они не должны застревать или цепляться рогами;
+если козлята содержатся вместе с матками и взрослыми животными, кормовые прорези делают в форме замочной скважины, чтобы козлята могли просовывать головы в нижнюю часть отверстий, а взрослые животные – в верхнюю;
+особое внимание обратите на защитное покрытие кормушки (краски, пропитки древесины и пр.). Лучше всего обойтись без них. Если это невозможно, они должны быть нетоксичными для живых существ. Недопустимо отслоение верхнего слоя, пачкаться он тоже не должен. Козы часто обгрызают деревянные детали вместе с нанесенным покрытием или скусывают его с металлических деталей, в случае осыпающейся или крошащейся фактуры покрытие, особенно краска, может попадать непосредственно в корм;
+недопустима любая потеря корма – выпадение на пол, загрязнение, смешивание с водой или экскрементами животных;
+устанавливают кормушки там, где есть свободное место для того, чтобы все животные встали в ряд. Не у входа в козлятник, чтобы не блокировать его, лучше всего – у противоположной стены.
+Другими словами, кормушка должна быть удобна и безопасна для коз и обеспечивать 100% поедания корма, не допуская его порчи.
+Прорезь, рассчитанная на разновозрастных животных
+Материалы и принципы изготовления
+При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/10-plant-lens-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/vidy-kormushek-dlya-koz-300x198-9.jpg</t>
         </is>
       </c>
     </row>
@@ -636,17 +1742,252 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Find &amp; log animals and plants</t>
+          <t>Материалы и принципы изготовления</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Еще одно мобильное приложение, для работы которого обязательно указать месторасположение. Проект работает через GPS-трекинг. Возможности утилиты помогают определить, какие растения располагаются вокруг. База данных приличная, пополнение происходит благодаря пользователям. </t>
+          <t>При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если пр</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/12-find-log-animals-and-plants-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-22.png</t>
         </is>
       </c>
     </row>
@@ -656,17 +1997,192 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Менеджер комнатных растений</t>
+          <t>Французские кормушки</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чтобы узнать название комнатного растения, можно воспользоваться приложением «Менеджер комнатных растений». В базе около 500 видов, которые растут в России и соседних странах. По сути, программа является небольшой записной книжкой. Очень удобная функция – помощь в выращивании. Есть возможность выбрать цветок, который растет дома. Утилита будет подсказывать время полива, способы лечения и восстановления, а также график пересадки и подкормки. </t>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/13-menedzher-komnatnyh-rastenij-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-38.jpg</t>
         </is>
       </c>
     </row>
@@ -676,17 +2192,114 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Что это за цветок</t>
+          <t>Изготовление кормушки из пластиковой бочки</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Еще одно интересное приложение, которое поможет узнать название цветка. Автор – словакский разработчик. База с растениями небольшая, но регулярно происходит ее пополнение. Большой плюс утилиты в том, что после скачивания она работает без интернета в офлайн режиме. Правда, за такую возможность потребуется внести плату. В интерфейсе предусмотрено много языков. </t>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/14-chto-eto-za-tsvetok-910x1024-3.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-51.jpg</t>
         </is>
       </c>
     </row>
@@ -696,17 +2309,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Яндекс браузер с Алисой</t>
+          <t>Кормушка из труб</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">В браузере Яндекс запущено много удобный сервисов (такси, поисковик, деньги, погода), которыми управляет встроенный голосовой помощник Алиса. Аналогичная версия есть и для операционной системы Windows, которая работает на компьютере. Алиса поможет найти, как называется это растение. Алгоритм действий определителя растений онлайн: В результате будут подобраны аналогичные картинки. Любую из них можно кликнуть и ознакомиться с описанием. </t>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/15-yandeks-brauzer-s-alisoj-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-20.jpg</t>
         </is>
       </c>
     </row>
@@ -716,17 +2347,252 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Поиск по картинкам Яндекс</t>
+          <t>Материалы и принципы изготовления</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чтобы работать с сервисом фотографий в браузере Яндекс, необходимо перейти по ссылке yandex.ru/images. Далее кликнуть по пиктограмме с изображение фотографии, выбрать необходимый снимок и ожидать результата поиска. Если сервис найдет похожие изображения, то выдаст их вместе с названиями. </t>
+          <t>При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если пр</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/17-poisk-po-kartinkam-yandeks-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-23.png</t>
         </is>
       </c>
     </row>
@@ -736,17 +2602,192 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Французские кормушки</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Удобная поисковая система, предлагающая возможность нахождения информации по картинке. Сервис предлагает общий поисковик, а также уточнение по разделам, например, цветы и растения. Последовательность действий: Если найти по картинке название растения не получается, то можно выделить часть изображения и кликнуть по «Наглядный поиск». </t>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/18-bing-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-39.jpg</t>
         </is>
       </c>
     </row>
@@ -756,15 +2797,116 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Определение названия растения по описанию</t>
+          <t>Изготовление кормушки из пластиковой бочки</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сегодня с помощью описания растения можно также определить название культуры и узнать подробную информацию. Очень актуальная проблема, если сделать фото нет возможности. </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-52.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -772,17 +2914,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Сервис Плантариум</t>
+          <t>Кормушка из труб</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">С помощью онлайн-сервиса Плантариум получится определить растение, но без фотографии, а по определенным признакам и приметам. Плантариум – уникальный онлайн атлас для растений России и сопредельных стран. У сервиса есть свой официальный сайт: plantarium.ru. Чтобы определить с помощью сервиса Плантариум растение, выполняют простую последовательность действий: Утилита предлагает пользователям возможность искать растения по загруженным фотографиям. Поиск проводится вручную. </t>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/21-servis-plantarium-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-21.jpg</t>
         </is>
       </c>
     </row>
@@ -792,17 +2952,252 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Сервис Happyflora.ru</t>
+          <t>Материалы и принципы изготовления</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Удобный сервис, который поможет по описанию определить название цветка. Перед поиском пользователю предлагают анкету с характеристиками. Возле нужного значения необходимо установить галочку. Минус проекта в том, что, несмотря на наличие всей нужной информации, неопытному человеку потребуется много времени для установки всех параметров. </t>
+          <t>При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если пр</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/22-servis-happyflora.ru_-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-24.png</t>
         </is>
       </c>
     </row>
@@ -812,17 +3207,192 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>В поисковиках</t>
+          <t>Французские кормушки</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пользователь может самостоятельно определить цветок по его внешнему виду, чтобы потом упростить задачу поисковой системы любого браузера. Легче всего самому определить вид: Современные браузеры дают возможность определить растение по различным признакам и характеристикам: Помочь в поиске названия всегда могут различные форумы садоводов и цветоводов. Активные пользователи с большим удовольствием делятся информацией. </t>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/23-poiskovik-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-40.jpg</t>
         </is>
       </c>
     </row>
@@ -832,17 +3402,114 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>В энциклопедиях и каталогах</t>
+          <t>Изготовление кормушки из пластиковой бочки</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроме информационных баз и онлайн-сервисов не теряет своей актуальности классический способ поиска: использование специальных книг, справочников и энциклопедий. В подобной литературе всегда можно найти описание растений с иллюстрациями. Легко узнать необходимую информацию в каталогах. Подобная литература имеется в свободном доступе во всех цветочных магазинах, как стационарных, так и интернет-маркетах. </t>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/24-entsiklopediya-tsvetov-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-53.jpg</t>
         </is>
       </c>
     </row>
@@ -852,17 +3519,101 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Популярные сообщества во ВКонтакте</t>
+          <t>Кормушка из труб</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Цветоводы со всего мира создают ботанические сообщества в социальной сети «ВК». Для нашей страны наиболее востребованными являются: Можно поискать и другие варианты. </t>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Другими словами, кормушка должна быть удобна и безопасна для коз и обеспечивать 100% поедания корма, не допуская его порчи.
+Прорезь, рассчитанная на разновозрастных животных
+Материалы и принципы изготовления
+При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Прорезь, рассчитанная на разновозрастных животных </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/27-tsvetushhij-sad.-dacha.-ogorod-300x216-3.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/51de78a896b25d31cf876f12aa11462f77559a5a-300x169-19.jpg</t>
         </is>
       </c>
     </row>
@@ -872,17 +3623,252 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Как определить название цветка по фото через форумы</t>
+          <t>Материалы и принципы изготовления</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Самый надежный способ, как узнать название цветка по фотографии – показать изображение знающим людям. Если в живую нет возможности задать свой вопрос, можно обратиться к профессионалам на специализированных форумах. Подобные сервисы не теряют своей актуальности. Причем, на них сидят именно специалисты, которые помогут профессионально. Чтобы узнать нужную информацию, нужно просто зарегистрироваться, а затем задать вопрос. На сегодняшний день есть несколько ботанических форумов с наибольшей численностью: Существенный недостаток – устаревший алгоритм общения. Ответ на свой вопрос можно ждать некоторое время. Правда, иногда везет, если специалист находится в режиме онлайн. </t>
+          <t>При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если пр</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/30-nasha-dacha-300x188-3.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-25.png</t>
         </is>
       </c>
     </row>
@@ -892,15 +3878,194 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Советы, как пользоваться сервисами для определения растений по фото</t>
+          <t>Французские кормушки</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Большинство программ, описанных выше, работают на отлично. С их помощью получится узнать название цветка по фотографии. Но иногда возникают проблемы, особенно с травянистыми культурами. Если не находите нужного цветка, то следует проверить качество фото или рассмотреть другие программы. Проблемы с идентификацией возникают часто по ошибкам самого пользователя, когда он делает снимок. </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-41.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -908,17 +4073,114 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Некачественное фото</t>
+          <t>Изготовление кормушки из пластиковой бочки</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наиболее важный момент – качество фото. Именно от него зависит точность определения культуры. Современные мобильные устройства оснащены качественными камерами, а вот более старые смартфоны такими комплектующими не обладают. Если снимки не будут отличаться высоким качеством и четкостью, то результат будет не точным. </t>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/32-kachestvo-foto-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-54.jpg</t>
         </is>
       </c>
     </row>
@@ -928,17 +4190,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Правильный ракурс и фокус для качественной фотографии</t>
+          <t>Кормушка из труб</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Иногда даже при первоклассной камере не всегда получится сделать правильный снимок для определения названия растения. Несколько рекомендаций, которые помогут сделать фотографию высокого качества с правильным фокусом и ракурсом: Иногда к работе приложения есть вопросы, их всегда можно задать службе поддержки. </t>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Прорезь, рассчитанная на разновозрастных животных </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/10/33-foto-2.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/51de78a896b25d31cf876f12aa11462f77559a5a-300x169-20.jpg</t>
         </is>
       </c>
     </row>
@@ -948,15 +4228,254 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Плохая связь</t>
+          <t>Материалы и принципы изготовления</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Не везде мобильная связь работает хорошо. Иногда за пределами населенных пунктов возникают вопросы. Нередко нестабильный интернет становится причиной ошибок приложения и его медленной работы. В наше время отыскать в интернете информацию о том или ином изображении по силам каждому, даже если дома нет компьютера. Огромное количество сервисов поможет найти название цветка или растения прямо со смартфона с подключением к интернету. Какой из сервисов для определения цветка по фото вы уже опробовали? </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>При самостоятельном изготовлении кормушки для коз необходимо придерживаться одного правила – чем проще, тем лучше. Простые кормушки проще мыть, они долговечнее, снижен риск травмировать животное.
+Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если пр</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-26.png</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -964,15 +4483,194 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2. PlantNet</t>
+          <t>Французские кормушки</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Это популярное приложение для угадывания растений создано сообществом французских ботанических организаций. По утверждению разработчиков, PlantNet лучше всего справляется с дикими видами. Но, как показали эксперименты, и домашние растения оно распознаёт неплохо. Нажмите на кнопку в правом нижнем углу экрана, выберите изображение из галереи или сделайте снимок с камеры, а затем укажите, какую именно часть растения вы фотографировали — цветок, лист, плод или ствол. PlantNet выведет список похожих объектов, поможет найти латинское название вашего питомца и предложит поискать его в Google или «Википедии». База PlantNet пополняется за счёт пользователей. Участие в проекте необязательно, но при желании вы можете создать аккаунт и помечать правильно угаданные цветы, чтобы повысить точность распознавания. Отдельный плюс этого приложения в том, что оно полностью бесплатно и не имеет премиум-функций. Загрузить Цена: Бесплатно Загрузить Цена: Бесплатно </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-42.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -980,15 +4678,4774 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4. PlantSnap</t>
+          <t>Изготовление кормушки из пластиковой бочки</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Чуть более продвинутая программа с большой базой, содержащей цветы, деревья, грибы, суккуленты и кактусы со всего земного шара. Делаем снимок, ждём секунду — и объект распознан. Используя технологию машинного обучения и ИИ, PlantSnap одинаково хорошо определяет как растения на природе, так и те, что живут на подоконнике. Узнав цветок, PlantSnap выводит его краткое описание. PlantSnap можно попробовать без дополнительных вложений на Android, а вот на iOS придётся заплатить. Во free-версии вы не сможете загружать больше 10 снимков в день — и это довольно мало, учитывая, что программа не всегда распознаёт растения с первого раза. За 2,99 доллара в месяц ограничения будут сняты. Загрузить Цена: Бесплатно </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-55.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Материал можно взять любой подходящий – обрезки труб, куски пиломатериалов, старые бочки. При проектировании необходимо учесть размер поголовья. Чем больше коз – тем крупнее должна быть кормушка (как вариант – сделать несколько маленьких). Общий принцип расчёта размеров – все животные должны быть способны питаться одновременно, не мешая друг другу. Иначе более сильные особи будут оттеснять от еды более слабых, что приведет к похудению, ухудшению здоровья и уменьшению надоя последних.
+Нестандартный вариант из бруса и шланга
+Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+ </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-27.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-43.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-56.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Нестандартный вариант из бруса и шланга Никаких особых инструментов и навыков для изготовления простых кормушек не требуется. Достаточно простого столярного набора.
+Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+ </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/xti5plccryyupwundufweq-300x219-28.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-44.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-57.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Типовые размеры таковы: на козленка до полугода требуется 15-20 см длины, для взрослого животного от 30 до 40. Делать кормушку длиннее необходимого не нужно. Это приведет к ненужной трате материала и неэкономному расходу площади козлятника.
+Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+Кормушки ясельного типа своими руками
+Владельцу козьего стада могут пригодиться не только пустые бочки или обрезки из пластиковых труб. Простейшую кормушку комбинированного типа можно создать из досок и брусьев за пару часов.
+Схема кормушки ясельного типа
+ШагОписание
+1Сначала сколачивается нижний каркас, его размеры рассчитываются исходя из количества животных. По углам крепятся ножки из брусьев.
+2Дно формируется из плотно прилегающих друг к другу досок и прибивается к каркасу. Можно сделать его из деревянного щита или плиты ДСП, или подобного материала. Фанеру можно брать только толстую.
+3Сколачивается верхний каркас и боковые рейки.
+Так делается деревянный щит для кормушки
+Из двух деревянных щитов можно сделать угловую кормушку
+Видео — Изготовление кормушки своими руками
+Кормушка из арматуры
+Козоводы, у которых есть навыки работы со сварочным аппаратом, могут сварить кормушку из арматуры. Такой вариант сложнее в исполнении, но у него есть несколько преимуществ:
+крепость. Срок службы измеряется десятилетиями;
+вес. Железо тяжелый металл, и козы не смогут перевернуть даже пустую кормушку. Значит дополнительные утяжелители будут не нужны.
+Схема кормушки из арматуры
+К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+ </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-22.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-45.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-58.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Для того, чтобы животным было удобно питаться, передний борт нужно поднять от пола на естественную для них высоту. В среднем это 50 см и больше.
+ </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-23.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-46.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-59.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема кормушки ясельного типа Так делается деревянный щит для кормушки Из двух деревянных щитов можно сделать угловую кормушку </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/derevyannaya-kormushka-dlya-koz-2-300x300-36.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-47.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-60.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-24.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-48.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-61.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема кормушки из арматуры К недостаткам относится то, что выступающие элементы железной конструкции сложнее закруглить так, чтобы они не травмировали коз, желающих покушать.
+Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+Французские кормушки
+Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+ </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/6combined-feeder-metal-300x244-42.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-49.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-62.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Для снижения нецелевого расходования корма, под ясли можно подставить корыто или ящик, в который будет собираться выпадающее сено.
+ </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-25.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Французские кормушки</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Во Франции коз держат повсеместно как минимум последние три тысячи лет. За этот срок народные умельцы разработали свой уникальный тип кормушки и довели ее до совершенства. Во многом она сходна с ясельным типом, но отличается от него большей эргономичностью, удобством для животный и экономностью.
+Схема французской кормушки
+Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-50.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-63.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Схема французской кормушки Французская кормушка полностью универсальна, благодаря своей конструкции она подойдет как для сыпучего комбикорма, так и для грубого сена. Поглощение корма происходит внутри кормушки, куда животные просовывают головы сквозь окошки. Это снижает нецелевые потери сена до минимума, так как даже упавшее из пасти козы сено остается внутри и не падает на пол. Остатков, не подлежащих использованию, почти не бывает.
+К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-51.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-64.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ К недостаткам конструкции относится отсутствие крышки. Детеныши и молодняк могут запрыгивать внутрь. Проблема решается двумя способами. Можно приделать сверху крышку, или нарастить боковые стенки до высоты, которая не позволит козам забраться внутрь. Это еще сильнее увеличит вместимость.
+Французская кормушка
+Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-52.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-65.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Французская кормушка Собирается конструкция просто. 
+Шаг Описание
+1Из дерева, плит ДСП или плотной фанеры сбивается ящик. Если столярные навыки позволяют, дно лучше сделать из листа нержавейки, это усилит прочность и увеличит срок эксплуатации.
+2Ножки у конструкции отсутствуют, она ставится на бруски из твердого дерева, которые надпиливаются для устойчивости конструкции. Это позволяет удобно перемещать ее в нужное место.
+3Следующим шагом в фронтальной и задней стенке прорезают отверстия, сквозь которые животные станут поглощать корм, обрабатывают разрезы так, чтобы исключить травмоопасность, и кормушка готова.
+Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/dsc_7672-53.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-66.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Менять ширину кормушки не рекомендуется. Увеличение приведет к тому, что животные не будут дотягиваться до корма, лежащего в середине, уменьшение — к тому, что головы животных будут соприкасаться и мешать друг другу.
+ Несмотря на простоту конструкции и сборки, такая конструкция разрешает оптимизировать работу скотника, она позволяет насыпать достаточно корма на день и больше. Французские ясли позволяют единоразово задать козам объем грубого корма, которого хватит на несколько кормлений вперед.
+Изготовление кормушки из пластиковой бочки
+Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-26.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-67.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-27.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Изготовление кормушки из пластиковой бочки</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошие универсальные кормушки получаются из ненужных пластиковых бочек. Только для этого нужно соблюсти некоторые предварительные условия:
+бочки, в которых хранились токсичные вещества, в том числе становящиеся такими при попадании в желудочно-кишечный тракт коз (например, горюче-смазочных материалов), использовать нельзя. Из-под краски, клея и прочих непищевых веществ можно брать только после тщательной очистки с применением хозяйственного мыла и просушки;
+бочки не должны иметь трещин, дыр и иных нарушений целостности. Если пластик тонкий – следует предварительно проверить его прочность.
+Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-68.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Из пластиковых бочек можно сделать два типа кормушек в зависимости от ориентации по оси – горизонтальной или вертикальной.
+Горизонтальная кормушка
+У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-69.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Горизонтальная кормушка У горизонтального варианта разрез продольный. Делается такая кормушка по следующей схеме:
+ШагОписание
+1Бочка кладется на бок. По ее периметру намечается высота, на которой изгиб постепенно сходит на нет, обычно это 5-15 см. Этот отрезок вымеряется сверху при помощи линейки, отчерчивается маркером и отпиливается электрическим или обычным лобзиком. Это будет отверстием для закладки корма. При желании отпиленную часть можно при помощи строительного скотча или иных приспособлений превратить в крышку
+2При помощи приведенных выше советов в боках бочки размечаются и вырезаются круглые отверстия для кормления животных.
+3Срезы обрабатываются так, чтобы не поранить животных.
+4В днище сверлятся тонким сверлом 2-3 отверстия, чтобы жидкость стекала вниз.
+5Из брусков, кирпичей или других подходящих материалов формируются ножки, которые прикрепляются к днищу. Сами пластиковые бочки очень легкие, поэтому для устойчивости конструкции ножки нужно либо крепить к полу, либо делать тяжелыми, чтобы козы не могли опрокинуть всю конструкцию.
+Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-70.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Второй вариант – вертикальный. Вместо одной большой кормушки он позволяет получить две маленькие, но высокие.
+Вертикальная кормушка
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-71.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Вертикальная кормушка 
+ШагОписание
+1Бочка расчерчивается на две г-образные половины как показано на рисунке и разрезается. Высота от линии разреза до любой из крышек составляет 20 см, продольный разрез должен делить ее напополам. Разрезы обрабатываются. Таким образом получается две одинаковых кормушки.
+2Плоскости вертикальных разрезов заделывают крупной сеткой с диаметром ячеек достаточным для того, чтобы коза просунула голову внутрь. Допустим вариант мелкоячеистой сетки, тогда ее нижний край опускают до угловой линии разрезов, и животные едят, просовывая головы под нее.
+3Кормушка ставится на ножки, но из-за малого веса пластика она неустойчива. Решить проблему можно, если прикрепить ее к вертикальной поверхности.
+Кормушка из труб
+Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-bochki-dlya-koz-2-300x199-72.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Кормушка из труб</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прекрасные кормушки для сыпучих кормов получаются из пластиковых труб большого диаметра, не меньше 10 см. Можно взять канализационную трубу ПВХ. Сразу нужно заметить – труба должна быть обязательно новой, брать бывшую в употреблении недопустимо, на ней могут остаться следы фекалий и колонии бактерий и микроорганизмов.
+Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Длина трубы выбирается из соображения, что каждый лишний сантиметр увеличивает вместимость, но уменьшает устойчивость. Оптимальной считается высота в 1, 5 м. Помимо этого, потребуется две заглушки того же диаметра и тройник 45º.
+Общий вид и схема изготовления кормушки из труб
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ Общий вид и схема изготовления кормушки из труб 
+ШагОписание
+1Способ изготовления прост. Для начала при помощи линейки и маркера делим трубу на три части, как это показано на рисунке слева. Труба режется по линиям, срезы обрабатываются. Самый длинный отрезок вставляется в верхнее отверстие тройника, средний – в нижнее, малый – в боковое. При этом есть коза будет из бокового отверстия, поэтому его нужно обработать максимально качественно.
+2Нижняя часть получившейся трубы наглухо закрывается заглушкой так, чтобы та не вылетела под весом насыпанного корма. На верхний конец ставят съемную заглушку. Для удобства использования к ней можно приделать маленькую ручку. В самом простом варианте – вкрутить болт удобного размера.
+3К стене эта конструкция крепится при помощи хомутов.
+ </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://supergardener.ru/wp-content/uploads/2023/10/kormushka-iz-trub-dlya-koz-300x198-28.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6 народных правил, как сохранить огород от сглаза</t>
+          <t>Сарай для зимовки коз</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Есть люди, обладающие особо сильной отрицательной энергетикой. Они могут навредить вашему любимому огороду, только глянув на него с завистью. Это и называется в народе «дурной глаз». Чтобы защититься от него, можно проделать кое-какие манипуляции, которые не дадут негативу проникнуть на приусадебный участок: Посеять на самом видном месте космею. Зарыть маленькие зеркальца в углах участка. Поставить пугало без лица — не рисовать и не изображать его. Добавить осиновые прутики или колья в ограду. Завязать красную тесьму на заборе. Поставить метлу прутьями вверх при входе в огород. Посеять на самом видном месте космею. Посеять на самом видном месте космею. Зарыть маленькие зеркальца в углах участка. Зарыть маленькие зеркальца в углах участка. Поставить пугало без лица — не рисовать и не изображать его. Поставить пугало без лица — не рисовать и не изображать его. Добавить осиновые прутики или колья в ограду. Добавить осиновые прутики или колья в ограду. Завязать красную тесьму на заборе. Завязать красную тесьму на заборе. Поставить метлу прутьями вверх при входе в огород. Поставить метлу прутьями вверх при входе в огород. </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/11/2302032.jpg</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Главное условие — это сухой хлев без гуляющих сквозняков. Отопление в хлеве понадобится только при выращивании новорожденных козлят. Взрослые козы самостоятельно регулируют температуру тела, поэтому они прекрасно переносят морозы в неотапливаемых помещениях. В зимний период их содержат в стойлах, при этом немаловажно хозяину позаботиться об условиях содержания и запастись полноценным кормом. Еще при строительстве козлятника необходимо учесть несколько моментов: Именно поэтому для строительства используют дерево, оно лучше сохраняет тепло, когда как бетон или кирпич удерживают больше влажности и сырости. </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -476,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Не стоит показывать свои грядки соседям</t>
+          <t>Условия зимнего содержания</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Многие замечают, как после восторженных соседских возгласов о том, какой у вас богатый и пышный урожай, растения вскоре вянут и чахнут. С этим хоть раз сталкивался любой дачник. Еще вчера благоухающие перцы, томаты и огурцы начинают гибнуть без видимой причины, плоды опадают, кусты сохнут. Это работа потусторонних сил, а именно зависти. Человек может навредить даже невольно, не желая ничего плохого соседям. Но зависть, сидящая глубоко внутри, сама сделает «темное дело». Не допускайте этого и попросту не водите «экскурсии» по своему огороду. Не берите ничего для себя у соседей, например, инвентарь. Это тоже обернется потерей урожая, так что не рискуйте. </t>
+          <t xml:space="preserve">Оптимальная температура в хлеву +7°C при содержании взрослых особей и +10°C при нахождении в стойле козы с козлятами. При более низких температурах коз надо утеплить одеждой. Для этого им надевают старые куртки и пальто через передние ноги и застегивают их на спине. Упор делают на защиту грудной клетки животного, чтобы исключить развитие простудных заболеваний. Каждому животному необходим отдельный отсек. Козы — это свободолюбивые животные, поэтому им надо предоставить просторное место. В зависимости от особи, на одно животное требуется разная площадь стойла: Кормушки располагают двух видов. Грубые корма (сено и солому) раскладывают в ясли, концентраты и овощи — в специальные индивидуальные кормушки. Устанавливают их на высоте 40-50 см от пола. </t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -492,19 +488,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Не нужно угощать соседей овощами и фруктами со своего участка</t>
+          <t>Подготовка хлева к зиме</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Здесь та же история — только вы угостили соседку яблоками, как дерево на следующий год перестало плодоносить. Такие случаи нередки, а причина одна — зависть и темные мысли. И это даже может быть не по вине соседей, они могли рассказать кому-то еще о ваших чудесных яблоках, а завистников вокруг всегда немало. Если даже соседи просят попробовать что-то с ваших кустов или деревьев — тактично откажите. Даже приличные доброжелательные с виду люди могут стать источником подсознательной зависти и проблем для вас. Лучше пригласите соседей домой на чашку чая с пирогом, а не на экскурсию по участку. </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/11/2302036.jpg</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Чтобы зимовка коз прошла без проблем, готовят козлятник, руководствуясь следующими рекомендациями:        </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -512,17 +504,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Как «наколдовать» хороший урожай</t>
+          <t>Питание коз зимой</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Есть особый оберег для тех, кто хочет иметь со своих грядок максимальный урожай. Как только взошло солнце, поставьте два острых ножа диагонально, по самую рукоятку воткнув в землю. Лезвия при этом должны быть направлены навстречу друг другу. Никакая злая сила не сможет испортить вам огородный сезон. Весной семена или рассаду в землю высаживайте в одиночку, когда соседей нет. До этого никому ее не показывайте, даже хорошим знакомым. Во время высадки приговаривайте: «Расти, не плошай, ждет большой урожай!». Если рассада плохо приживается, то на убывающей луне читайте над ростками «Отче наш», брызгая при этом их святой водой. Нашли нарушение? Пожаловаться на содержание </t>
+          <t xml:space="preserve">Зимний рацион коз сильно претерпевает изменения. Придерживаются следующих правил:       Все корма лучше смешивать с сеном, оно помогает более полно усваиваться витаминам и другим питательным веществам. Заготавливают веники из ветвей деревьев: На одну особь достаточно заготовить 80 веников. Березовые веточки скармливают в ограниченном количестве, обязательно их чередуют с другими видами. Если не успели по каким-то причинам произвести заготовку, то их заменяют безлиственными ветками лиственных пород. В них находится много полезных веществ необходимых животному. Некоторые фермеры перестраховываются и добавляют витаминные комплексы прямо в еду высокоудойным, беременным (суягным), больным и ослабленным козам. Сколько и каких кормов требуется на одну взрослую особь на зиму: Если говорить о питье, то лучше установить поилки с подогревом. Козы — довольно «горячие» животные, их нормальной температурой тела считается 40°C, поэтому они пьют горячую воду. К воде должен быть свободный доступ, особенно это касается самцов, поскольку они предрасположены к мочекаменной болезни.   Больше информации о питании коз в разное время года найдёте здесь. </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/11/779408_300x200.jpg</t>
+          <t>https://supergardener.ru/wp-content/uploads/2023/11/dsc07440.webp</t>
         </is>
       </c>
     </row>
@@ -530,17 +522,80 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Чем могут заболеть козы в холодный период?</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Утро, пока прохладно и не жарко, приглашаю на наш огород ... почему наш, потому, что трудимся тремя семьями, копаем, садим, ухаживаем, а потом собираем замечательные овощи. Приглашаю ... все фото сделала сегодня утром не используя фотошоп. Ну, что ... поехали ... Начну с острого перца ...их у нас много...     самое любимое место ...помидорный рай ... в песке воробьи любят купаться* так прикольно за ними наблюдать) жаль в кадр не попали, но сегодня сфоткаю             кабачковый рай...Ммм + капустка, она еще вяжется         огуречный рай и наслаждение...Ммм         А вот это у нас фасоль стручковая ... скоро урожай собирать бум...     и еще помидорчики, сладенькие, ароматные ...     выращиваем свой салат, морковку, укроп, петрушку лук порей ...чем больше, тем лучше ...         А тут у нас хрен, разросся нынче...     морковка     У соседа вот так растёт абрикоса, всегда угощает нас ... урожай уже собран     У соседки много цветов, она очень любит ими заниматься                                         А это наша яблоня     немного декорации     Ну, вот, спасибо, что прогулялись со мной по нашему огороду. Я обожаю утром пить кофе, выйдя на улицу читая журнал     собрала яблочки, которые упали ...подумаю, что с ними сделать     Ну вот и все ... допила кофе, полила огород и по делам)    Источник Понравилась статья? Подпишитесь на канал, чтобы быть в курсе самых интересных материалов </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://supergardener.ru/wp-content/uploads/2023/11/bp.webp</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Зимой козы подвержены развитию следующих заболеваний: Отдельно по болезням коз можно изучить информацию тут. В зимнее время уход за козами сводится к правильному кормлению и созданию комфортных условий в сарае. Главное, это отсутствие сквозняков и сырости. В этом случае животное прекрасно переживет зиму, и это не скажется отрицательно на удое в дальнейшем. </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">В холодное время года все домашние животные и птицы требуют особенного ухода, козы не исключение. Разберем в этой статье, каким должно быть содержание коз зимой в домашних условиях. </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Создаем теплый козлятник
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Содержание коз без отопления в сарае возможно, нужно лишь учитывать ряд правил и требований: Животные сами способны поддержать в козлятнике оптимальную для них температуру. Если в сарае находятся беременные и новорожденные козы, то температура должна составлять 9-10 градусов, в остальных же случаях не ниже 6 градусов; Недопустимо содержание на сквозняках или в помещениях с высокой влажностью, так как животные могут заболеть пневмонией; Пол сделайте заранее деревянным, дополнительно положив на него солому, сухой мох, опил; Освещение в сарае должно быть естественное. Расположите окна на высоте полутора – двух метров от пола, чтобы козы не могли их выбить копытами; Используйте трубу-вытяжку для вентиляции, чтобы поддерживать в козлятнике свежий воздух; Лучше не содержать самок с козлом, так как его запах может перейти на молоко; Ну и, конечно, не забывайте о поддержании чистоты и сухости в козлятнике.  Животные сами способны поддержать в козлятнике оптимальную для них температуру. Если в сарае находятся беременные и новорожденные козы, то температура должна составлять 9-10 градусов, в остальных же случаях не ниже 6 градусов; Животные сами способны поддержать в козлятнике оптимальную для них температуру. Если в сарае находятся беременные и новорожденные козы, то температура должна составлять 9-10 градусов, в остальных же случаях не ниже 6 градусов; Недопустимо содержание на сквозняках или в помещениях с высокой влажностью, так как животные могут заболеть пневмонией; Недопустимо содержание на сквозняках или в помещениях с высокой влажностью, так как животные могут заболеть пневмонией; Пол сделайте заранее деревянным, дополнительно положив на него солому, сухой мох, опил; Пол сделайте заранее деревянным, дополнительно положив на него солому, сухой мох, опил; Освещение в сарае должно быть естественное. Расположите окна на высоте полутора – двух метров от пола, чтобы козы не могли их выбить копытами; Освещение в сарае должно быть естественное. Расположите окна на высоте полутора – двух метров от пола, чтобы козы не могли их выбить копытами; Используйте трубу-вытяжку для вентиляции, чтобы поддерживать в козлятнике свежий воздух; Используйте трубу-вытяжку для вентиляции, чтобы поддерживать в козлятнике свежий воздух; Лучше не содержать самок с козлом, так как его запах может перейти на молоко; Лучше не содержать самок с козлом, так как его запах может перейти на молоко; Ну и, конечно, не забывайте о поддержании чистоты и сухости в козлятнике.  Ну и, конечно, не забывайте о поддержании чистоты и сухости в козлятнике.  </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кормление козы с козлятами
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Козлята могут пробовать корма только на седьмой день жизни. Обязательно проследите за качеством их пищи, и помните, что пищеварительная система новорожденных козлят особенно чувствительна к корму; Чем кормить козу с козлятами зимой: Овес. Хлеб. Яблоки. Арбузы. Картофель. Отруби. Сало. Морковь. Ветки. Сережки деревьев. Овес. Овес. Хлеб. Хлеб. Яблоки. Яблоки. Арбузы. Арбузы. Картофель. Картофель. Отруби. Отруби. Сало. Сало. Морковь. Морковь. Ветки. Ветки. Сережки деревьев. Сережки деревьев. После окота самку можно накормить морковью, сеном, отрубями, вода должна быть у нее в постоянном доступе. </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Способы повышения удоя в зимний период: лактация
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не менее важно соблюдать особый рацион в период лактации. От питания козы в первую очередь зависит качество молока, молочная продуктивность и здоровье животного. Чтобы повысить удои, добавляйте в рацион больше минеральных веществ, веток и листьев, овощей, зерна, корнеплодов, качественного сена, воды. Молокоотдача зависит также и от доения. Старайтесь делать это периодично, в одно и тоже время, и выдаивайте молоко до последней капли. Устраивайте прогулки и помните, что любой стресс может негативно сказаться на процессе молокоотдачи! </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
